--- a/Assignments/hw1/q1n/q1_2.4.xlsx
+++ b/Assignments/hw1/q1n/q1_2.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Aero_5830\Assignments\hw1\q1n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E2522D1-348F-4427-8CF3-DEE2FF0E80E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12601162-6078-4E9F-9630-BE20A41BB4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{39DDAE12-E3B6-4849-A49C-83D28E5E80B6}"/>
+    <workbookView xWindow="2220" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{39DDAE12-E3B6-4849-A49C-83D28E5E80B6}"/>
   </bookViews>
   <sheets>
     <sheet name="fl" sheetId="4" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assignments/hw1/q1n/q1_2.4.xlsx
+++ b/Assignments/hw1/q1n/q1_2.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Aero_5830\Assignments\hw1\q1n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12601162-6078-4E9F-9630-BE20A41BB4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38190364-7D65-495F-B656-2021E0F7924D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1965" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{39DDAE12-E3B6-4849-A49C-83D28E5E80B6}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{39DDAE12-E3B6-4849-A49C-83D28E5E80B6}"/>
   </bookViews>
   <sheets>
     <sheet name="fl" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>2.4</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>iteration (n)</t>
+  </si>
+  <si>
+    <t>eps</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -208,9 +214,10 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="1" xr16:uid="{F1920A2C-6DF9-4EB0-91D9-19A93D041FA9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="2">
-    <queryTableFields count="1">
+  <queryTableRefresh nextId="3" unboundColumnsRight="1">
+    <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
+      <queryTableField id="2" dataBound="0" tableColumnId="2"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -220,7 +227,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B4544234-B420-4DB2-9C8F-258637369A3B}" name="tl__2" displayName="tl__2" ref="B1:B7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:B7" xr:uid="{4A24B367-5A91-40FE-895F-26257079D7BA}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{505D3742-1779-4673-919D-94A773A82FFB}" uniqueName="1" name="t_n" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{505D3742-1779-4673-919D-94A773A82FFB}" uniqueName="1" name="t_n" queryTableFieldId="1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -230,17 +237,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{726DC6CF-28B6-49A6-B161-3DCB2691839D}" name="fl" displayName="fl" ref="C1:C7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C1:C7" xr:uid="{7916A6C6-0688-4FAB-AC18-9FDBCA283B09}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{98A056DC-0A0A-4874-B90F-84ACA0E12447}" uniqueName="1" name="f(t)" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{98A056DC-0A0A-4874-B90F-84ACA0E12447}" uniqueName="1" name="f(t)" queryTableFieldId="1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C5EA8ACC-CA1D-4DD1-8E47-EE1931BFA1F4}" name="dtl" displayName="dtl" ref="D1:D6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D1:D6" xr:uid="{3B6DED0A-081E-48A3-B639-F74CD737C9EE}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D43CC467-8BC9-41CC-8069-CE9467A669FE}" uniqueName="1" name="t_n+1-t_n" queryTableFieldId="1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C5EA8ACC-CA1D-4DD1-8E47-EE1931BFA1F4}" name="dtl" displayName="dtl" ref="D1:E6" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D1:E6" xr:uid="{3B6DED0A-081E-48A3-B639-F74CD737C9EE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D43CC467-8BC9-41CC-8069-CE9467A669FE}" uniqueName="1" name="t_n+1-t_n" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{49317183-5E3E-449F-8090-B846B72D11BC}" uniqueName="2" name="eps" queryTableFieldId="2" dataDxfId="0">
+      <calculatedColumnFormula>ABS(dtl[[#This Row],[t_n+1-t_n]]/tl__2[[#This Row],[t_n]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -560,10 +570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205A9EFD-92D7-4E85-B0FC-7FF6B7677986}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +584,7 @@
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -587,8 +597,11 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -601,8 +614,12 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1-t_n]]/tl__2[[#This Row],[t_n]])</f>
+        <v>5.6973163337435836E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -615,8 +632,12 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1-t_n]]/tl__2[[#This Row],[t_n]])</f>
+        <v>1.1564035018478863E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -629,8 +650,12 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1-t_n]]/tl__2[[#This Row],[t_n]])</f>
+        <v>3.0778396387650802E-4</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -643,8 +668,12 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1-t_n]]/tl__2[[#This Row],[t_n]])</f>
+        <v>2.714543911688439E-7</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -657,8 +686,12 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1-t_n]]/tl__2[[#This Row],[t_n]])</f>
+        <v>2.1224482257090188E-13</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
